--- a/results_tech.xlsx
+++ b/results_tech.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Test score</t>
+          <t>Precision Test</t>
         </is>
       </c>
     </row>
@@ -462,12 +462,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.3, 'max_depth': 1, 'n_estimators': 25, 'objective': 'binary:logistic'}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 75, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[(0.25996196, 'Surprise_ratio_EMA1Y'), (0.22067279, 'Surprise_ratio_SMA1Y'), (0.11076621, 'SurpriseQ_ratio_SMA4Y'), (0.0794194, 'netIncomePerShare'), (0.037470136, 'epsEstimated'), (0.03513259, 'Surprise_ratio_EMA3Y'), (0.0346813, 'researchAndDdevelopementToRevenue'), (0.028893558, 'epsdiluted'), (0.025596853, 'tenYShareholdersEquityGrowthPerShare'), (0.022523424, 'salesGeneralAndAdministrativeToRevenue')]</t>
+          <t>[(0.058938783, 'Surprise_ratio_EMA1Y'), (0.05486359, 'Surprise_ratio_SMA1Y'), (0.014628632, 'SurpriseQ_ratio_SMA4Y'), (0.01303074, 'netIncomePerShare'), (0.012761196, 'ebitda'), (0.012048901, 'salesGeneralAndAdministrativeToRevenue'), (0.011758652, 'Surprise_ratio_EMA3Y'), (0.0111966, 'eps_growthratio_EMA1Y'), (0.011113376, 'priceToSalesRatio'), (0.011101828, 'fiveYShareholdersEquityGrowthPerShare')]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6727122835943941</v>
+        <v>0.6690363349131122</v>
       </c>
     </row>
     <row r="3">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.2, 'max_depth': 1, 'n_estimators': 75, 'objective': 'binary:logistic'}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 50, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[(0.23414607, 'Surprise_ratio_EMA1Y'), (0.102946766, 'Surprise_ratio_SMA1Y'), (0.09035364, 'epsEstimated'), (0.06390029, 'returnOnCapitalEmployed'), (0.048636094, 'epsdiluted'), (0.0429361, 'SurpriseQ_ratio_SMA4Y'), (0.03470877, 'threeYNetIncomeGrowthPerShare'), (0.03231096, 'operatingIncome'), (0.020748693, 'Surprise_ratio_EMA3Y'), (0.019010533, 'goodwill')]</t>
+          <t>[(0.07854615, 'Surprise_ratio_EMA1Y'), (0.04463048, 'Surprise_ratio_SMA1Y'), (0.019437578, 'netIncomePerShare'), (0.01847125, 'epsdiluted'), (0.017603608, 'epsEstimated'), (0.015804244, 'SurpriseQ_ratio_SMA4Y'), (0.015783513, 'incomeBeforeTax'), (0.013334431, 'Surprise_ratio_EMA3Y'), (0.012505018, 'eps_SMA1Y'), (0.012371075, 'accountPayables')]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6680851063829787</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="4">
@@ -508,12 +508,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.1, 'max_depth': 1, 'n_estimators': 25, 'objective': 'binary:logistic'}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 75, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[(0.22969648, 'Surprise_ratio_EMA1Y'), (0.1483211, 'Surprise_ratio_SMA1Y'), (0.14701904, 'epsEstimated'), (0.10449663, 'incomeBeforeTax'), (0.1038623, 'Surprise_ratio_EMA3Y'), (0.08363509, 'returnOnTangibleAssets'), (0.07714791, 'SurpriseQ_ratio_SMA4Y'), (0.05448837, 'SurpriseQ_ratio_SMA2Y'), (0.051333144, 'operatingIncome'), (0.0, 'workingCapital')]</t>
+          <t>[(0.054108046, 'Surprise_ratio_EMA1Y'), (0.028573483, 'incomeBeforeTax'), (0.02547292, 'epsdiluted'), (0.024938416, 'Surprise_ratio_EMA3Y'), (0.02400578, 'epsEstimated'), (0.023493955, 'Surprise_ratio_SMA1Y'), (0.022517843, 'returnOnTangibleAssets'), (0.02044759, 'ebitda'), (0.01901733, 'netIncomePerShare'), (0.018273905, 'returnOnEquity')]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6169354838709677</v>
+        <v>0.6143344709897611</v>
       </c>
     </row>
     <row r="5">
@@ -531,12 +531,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.1, 'max_depth': 1, 'n_estimators': 75, 'objective': 'binary:logistic'}</t>
+          <t>{'learning_rate': 0.3, 'max_depth': 1, 'n_estimators': 100, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[(0.12520775, 'Surprise_ratio_EMA1Y'), (0.10745392, 'Surprise_ratio_SMA1Y'), (0.07331371, 'Surprise_ratio_SMA3Y'), (0.057185475, 'SurpriseQ_ratio_SMA4Y'), (0.047284815, 'freeCashFlow'), (0.046693772, 'stockPrice'), (0.039181393, 'marketCap_x'), (0.03798237, 'SurpriseQ_ratio_SMA2Y'), (0.03767646, 'priceToOperatingCashFlowsRatio'), (0.036581196, 'operatingIncome')]</t>
+          <t>[(0.13565761, 'Surprise_ratio_EMA1Y'), (0.047079194, 'Surprise_ratio_SMA3Y'), (0.037011787, 'fixedAssetTurnover'), (0.03699724, 'deferredRevenue'), (0.033754524, 'stockPrice'), (0.032273777, 'SurpriseQ_ratio_SMA2Y'), (0.03153638, 'goodwill'), (0.030235521, 'Surprise_ratio_SMA1Y'), (0.029701794, 'priceToOperatingCashFlowsRatio'), (0.028741008, 'SurpriseQ_ratio_SMA4Y')]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6</v>
+        <v>0.4857142857142857</v>
       </c>
     </row>
     <row r="6">
@@ -554,12 +554,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.3, 'max_depth': 1, 'n_estimators': 100, 'objective': 'binary:logistic'}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[(0.10971416, 'Surprise_ratio_EMA1Y'), (0.045042418, 'Surprise_ratio_SMA1Y'), (0.04252841, 'freeCashFlow'), (0.04231167, 'fixedAssetTurnover'), (0.040989093, 'marketCap_x'), (0.035597406, 'stockPrice'), (0.035471797, 'epsQ_SMA4Y'), (0.031617988, 'returnOnCapitalEmployed'), (0.02403257, 'totalOtherIncomeExpensesNet'), (0.02350314, 'SurpriseQ_ratio_SMA2Y')]</t>
+          <t>[(0.030803557, 'Surprise_ratio_EMA1Y'), (0.01763976, 'Surprise_ratio_SMA1Y'), (0.0151622705, 'returnOnTangibleAssets'), (0.011832893, 'freeCashFlow'), (0.011777019, 'capexPerShare'), (0.011028107, 'accountsReceivables'), (0.01000736, 'eps_SMA1Y'), (0.009946918, 'netProfitMargin'), (0.0097374655, 'incomeQuality'), (0.009300263, 'investmentsInPropertyPlantAndEquipment')]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.5428571428571428</v>
       </c>
     </row>
     <row r="7">
@@ -577,12 +577,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.2, 'max_depth': 1, 'n_estimators': 75, 'objective': 'binary:logistic'}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 2, 'n_estimators': 100, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[(0.08444723, 'Surprise_ratio_EMA1Y'), (0.060590748, 'eps_EMA3Y'), (0.057979155, 'returnOnTangibleAssets'), (0.056497153, 'eps_SMA3Y'), (0.05179784, 'Surprise_ratio_SMA1Y'), (0.042665362, 'stockPrice'), (0.036003694, 'SurpriseQ_ratio_SMA2Y'), (0.0349291, 'returnOnCapitalEmployed'), (0.03100797, 'eps_growthratio_EMA1Y'), (0.030060697, 'freeCashFlow')]</t>
+          <t>[(0.048291646, 'Surprise_ratio_EMA1Y'), (0.030894777, 'Surprise_ratio_SMA1Y'), (0.023959706, 'longTermDebt'), (0.023133975, 'returnOnCapitalEmployed'), (0.022967504, 'depreciationAndAmortization_x'), (0.022846209, 'returnOnTangibleAssets'), (0.02152617, 'weightedAverageShsOut'), (0.02057818, 'deferrredTaxLiabilitiesNonCurrent'), (0.019552117, 'dcf'), (0.018981969, 'eps_SMA3Y')]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
